--- a/app-conf/data/datarep/species/templates/speciesTemplateSimple.xlsx
+++ b/app-conf/data/datarep/species/templates/speciesTemplateSimple.xlsx
@@ -1,18 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
-  <workbookProtection/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+  <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView activeTab="0" firstSheet="0" showHorizontalScroll="true" showSheetTabs="true" showVerticalScroll="true" tabRatio="600" windowHeight="8192" windowWidth="16384" xWindow="0" yWindow="0"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190"/>
   </bookViews>
   <sheets>
-    <sheet name="speciesTemplateSimple" sheetId="1" state="visible" r:id="rId2"/>
-    <sheet name="ImageMetadata" sheetId="2" state="visible" r:id="rId3"/>
-    <sheet name="Sheet3" sheetId="3" state="visible" r:id="rId4"/>
+    <sheet name="speciesTemplateSimple" sheetId="1" r:id="rId1"/>
+    <sheet name="ImageMetadata" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
+  <calcPr calcId="125725" iterateDelta="1E-4"/>
 </workbook>
 </file>
 
@@ -250,15 +249,9 @@
     <t>Global Distribution Geographic Entity</t>
   </si>
   <si>
-    <t>Indian Distribution Geographic Entity</t>
-  </si>
-  <si>
     <t>Global Endemicity Geographic Entity</t>
   </si>
   <si>
-    <t>Indian Endemicity Geographic Entity</t>
-  </si>
-  <si>
     <t>Integrated Taxonomic Information System (ITIS)</t>
   </si>
   <si>
@@ -433,7 +426,7 @@
     <t>Links to all documents on IBP referred to/associated with/ used in this entire page</t>
   </si>
   <si>
-    <t>A comma seperated values of ID's from separate ImageMetadata sheet OR a comma seperated list of image files. </t>
+    <t>A comma seperated values of ID's from separate ImageMetadata sheet OR a comma seperated list of image files.</t>
   </si>
   <si>
     <t>Any notes or comments</t>
@@ -486,56 +479,43 @@
   <si>
     <t>Use comma seperated values from 
 Public Domain, BY BY-NC, BY-SA, BY-NC-SA, BY-NC-ND</t>
+  </si>
+  <si>
+    <t>Local Distribution Geographic Entity</t>
+  </si>
+  <si>
+    <t>Local Endemicity Geographic Entity</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
-    <numFmt formatCode="GENERAL" numFmtId="164"/>
-    <numFmt formatCode="0" numFmtId="165"/>
-  </numFmts>
-  <fonts count="7">
+  <fonts count="4">
     <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color rgb="00000000"/>
-      <sz val="11"/>
     </font>
     <font>
-      <name val="Arial"/>
-      <family val="0"/>
-      <sz val="10"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
-      <name val="Arial"/>
-      <family val="0"/>
-      <sz val="10"/>
+      <u/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
-      <name val="Arial"/>
-      <family val="0"/>
-      <sz val="10"/>
-    </font>
-    <font>
+      <b/>
+      <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <b val="true"/>
-      <color rgb="00000000"/>
-      <sz val="11"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <sz val="11"/>
-      <u val="single"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <b val="true"/>
-      <sz val="11"/>
     </font>
   </fonts>
   <fills count="3">
@@ -547,13 +527,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00FDEADA"/>
-        <bgColor rgb="00FFFFFF"/>
+        <fgColor rgb="FFFDEADA"/>
+        <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
   </fills>
   <borders count="1">
-    <border diagonalDown="false" diagonalUp="false">
+    <border>
       <left/>
       <right/>
       <top/>
@@ -561,105 +541,80 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="20">
-    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="true" borderId="0" fillId="0" fontId="0" numFmtId="164">
-      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
-      <protection hidden="false" locked="true"/>
-    </xf>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="43"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="41"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="44"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="42"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="9"/>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="19">
-    <xf applyAlignment="false" applyBorder="false" applyFont="false" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0"/>
-    <xf applyAlignment="true" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="4" numFmtId="164" xfId="0">
-      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="top" wrapText="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFont="false" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0">
-      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="top" wrapText="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0">
-      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="top" wrapText="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0">
-      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="top" wrapText="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="2" fontId="4" numFmtId="164" xfId="0">
-      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="top" wrapText="true"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="2" fontId="0" numFmtId="164" xfId="0">
-      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="top" wrapText="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="false" borderId="0" fillId="2" fontId="0" numFmtId="164" xfId="0">
-      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="top" wrapText="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="true" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0">
-      <protection hidden="false" locked="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1">
+      <protection locked="0"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFont="true" applyProtection="true" borderId="0" fillId="0" fontId="0" numFmtId="165" xfId="0">
-      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="top" wrapText="false"/>
-      <protection hidden="false" locked="false"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top"/>
+      <protection locked="0"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFont="true" applyProtection="true" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0">
-      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="top" wrapText="true"/>
-      <protection hidden="false" locked="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top" wrapText="1"/>
+      <protection locked="0"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFont="true" applyProtection="true" borderId="0" fillId="0" fontId="5" numFmtId="164" xfId="0">
-      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="top" wrapText="true"/>
-      <protection hidden="false" locked="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top" wrapText="1"/>
+      <protection locked="0"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFont="true" applyProtection="true" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0">
-      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="top" wrapText="false"/>
-      <protection hidden="false" locked="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top"/>
+      <protection locked="0"/>
     </xf>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="true" borderId="0" fillId="0" fontId="4" numFmtId="164" xfId="0">
-      <protection hidden="false" locked="false"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1">
+      <protection locked="0"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFont="true" applyProtection="true" borderId="0" fillId="0" fontId="4" numFmtId="165" xfId="0">
-      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="top" wrapText="false"/>
-      <protection hidden="false" locked="false"/>
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top"/>
+      <protection locked="0"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFont="true" applyProtection="true" borderId="0" fillId="0" fontId="4" numFmtId="164" xfId="0">
-      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="top" wrapText="true"/>
-      <protection hidden="false" locked="false"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top" wrapText="1"/>
+      <protection locked="0"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFont="true" applyProtection="true" borderId="0" fillId="0" fontId="6" numFmtId="164" xfId="0">
-      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="top" wrapText="true"/>
-      <protection hidden="false" locked="false"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top" wrapText="1"/>
+      <protection locked="0"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFont="true" applyProtection="true" borderId="0" fillId="0" fontId="4" numFmtId="164" xfId="0">
-      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="top" wrapText="false"/>
-      <protection hidden="false" locked="false"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top"/>
+      <protection locked="0"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFont="true" applyProtection="true" borderId="0" fillId="0" fontId="0" numFmtId="165" xfId="0">
-      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="top" wrapText="true"/>
-      <protection hidden="false" locked="false"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top" wrapText="1"/>
+      <protection locked="0"/>
     </xf>
   </cellXfs>
-  <cellStyles count="6">
-    <cellStyle builtinId="0" customBuiltin="false" name="Normal" xfId="0"/>
-    <cellStyle builtinId="3" customBuiltin="false" name="Comma" xfId="15"/>
-    <cellStyle builtinId="6" customBuiltin="false" name="Comma [0]" xfId="16"/>
-    <cellStyle builtinId="4" customBuiltin="false" name="Currency" xfId="17"/>
-    <cellStyle builtinId="7" customBuiltin="false" name="Currency [0]" xfId="18"/>
-    <cellStyle builtinId="5" customBuiltin="false" name="Percent" xfId="19"/>
+  <cellStyles count="1">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="00000000"/>
@@ -718,28 +673,315 @@
       <rgbColor rgb="00993366"/>
       <rgbColor rgb="00333399"/>
       <rgbColor rgb="00333333"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="1F497D"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="EEECE1"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4F81BD"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="C0504D"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="9BBB59"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="8064A2"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="4BACC6"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="F79646"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0000FF"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="800080"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Cambria"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="50000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="35000">
+              <a:schemeClr val="phClr">
+                <a:tint val="37000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:tint val="15000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="1"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:shade val="51000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="80000">
+              <a:schemeClr val="phClr">
+                <a:shade val="93000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="94000"/>
+                <a:satMod val="135000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr">
+              <a:shade val="95000"/>
+              <a:satMod val="105000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="38000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:scene3d>
+            <a:camera prst="orthographicFront">
+              <a:rot lat="0" lon="0" rev="0"/>
+            </a:camera>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
+            </a:lightRig>
+          </a:scene3d>
+          <a:sp3d>
+            <a:bevelT w="63500" h="25400"/>
+          </a:sp3d>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="40000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="40000">
+              <a:schemeClr val="phClr">
+                <a:tint val="45000"/>
+                <a:shade val="99000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="20000"/>
+                <a:satMod val="255000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+          </a:path>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="80000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="30000"/>
+                <a:satMod val="200000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+          </a:path>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1:BT4"/>
+  <dimension ref="A1:AMK4"/>
   <sheetViews>
-    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="true" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="60">
-      <selection activeCell="A1" activeCellId="0" pane="topLeft" sqref="A1"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScalePageLayoutView="60" workbookViewId="0"/>
   </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="25.9294117647059"/>
-    <col collapsed="false" hidden="false" max="1025" min="2" style="2" width="25.9294117647059"/>
+    <col min="1" max="1" width="25.85546875" style="1"/>
+    <col min="2" max="1025" width="25.85546875" style="2"/>
   </cols>
   <sheetData>
-    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="14.9" outlineLevel="0" r="1" s="3">
+    <row r="1" spans="1:72" s="3" customFormat="1" ht="30">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -957,7 +1199,7 @@
         <v>14</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="28.35" outlineLevel="0" r="2">
+    <row r="2" spans="1:72" ht="30">
       <c r="A2" s="1" t="s">
         <v>15</v>
       </c>
@@ -1154,7 +1396,7 @@
         <v>60</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="41.75" outlineLevel="0" r="3">
+    <row r="3" spans="1:72" ht="45">
       <c r="A3" s="1" t="s">
         <v>61</v>
       </c>
@@ -1236,14 +1478,14 @@
         <v>76</v>
       </c>
       <c r="AS3" s="4" t="s">
-        <v>77</v>
+        <v>153</v>
       </c>
       <c r="AT3" s="4"/>
       <c r="AU3" s="4" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="AV3" s="4" t="s">
-        <v>79</v>
+        <v>154</v>
       </c>
       <c r="AW3" s="4"/>
       <c r="AX3" s="4"/>
@@ -1256,197 +1498,197 @@
       <c r="BE3" s="4"/>
       <c r="BF3" s="4"/>
       <c r="BG3" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="BH3" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="BI3" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="BH3" s="3" t="s">
+      <c r="BJ3" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="BI3" s="3" t="s">
+      <c r="BK3" s="3" t="s">
         <v>82</v>
-      </c>
-      <c r="BJ3" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="BK3" s="3" t="s">
-        <v>84</v>
       </c>
       <c r="BL3" s="4"/>
       <c r="BM3" s="3"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="216.4" outlineLevel="0" r="4">
+    <row r="4" spans="1:72" ht="285">
       <c r="A4" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="C4" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="D4" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="E4" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="F4" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="E4" s="3" t="s">
+      <c r="G4" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="F4" s="3" t="s">
+      <c r="H4" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="G4" s="3" t="s">
+      <c r="I4" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="H4" s="3" t="s">
+      <c r="J4" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="K4" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="I4" s="3" t="s">
+      <c r="L4" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="J4" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="K4" s="3" t="s">
+      <c r="M4" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="L4" s="3" t="s">
+      <c r="N4" s="3" t="s">
         <v>95</v>
       </c>
-      <c r="M4" s="3" t="s">
+      <c r="O4" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="P4" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="Q4" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="R4" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="S4" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="T4" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="U4" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="N4" s="3" t="s">
+      <c r="V4" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="O4" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="P4" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="Q4" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="R4" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="S4" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="T4" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="U4" s="3" t="s">
+      <c r="W4" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="V4" s="3" t="s">
+      <c r="X4" s="3" t="s">
         <v>99</v>
       </c>
-      <c r="W4" s="3" t="s">
+      <c r="Y4" s="3" t="s">
         <v>100</v>
       </c>
-      <c r="X4" s="3" t="s">
+      <c r="Z4" s="3" t="s">
         <v>101</v>
       </c>
-      <c r="Y4" s="3" t="s">
+      <c r="AA4" s="3" t="s">
         <v>102</v>
       </c>
-      <c r="Z4" s="3" t="s">
+      <c r="AB4" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="AA4" s="3" t="s">
+      <c r="AC4" s="3" t="s">
         <v>104</v>
       </c>
-      <c r="AB4" s="3" t="s">
+      <c r="AD4" s="3" t="s">
         <v>105</v>
       </c>
-      <c r="AC4" s="3" t="s">
+      <c r="AE4" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="AD4" s="3" t="s">
+      <c r="AF4" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="AE4" s="3" t="s">
+      <c r="AG4" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="AF4" s="3" t="s">
+      <c r="AH4" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="AG4" s="3" t="s">
+      <c r="AI4" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="AH4" s="3" t="s">
+      <c r="AJ4" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="AI4" s="3" t="s">
+      <c r="AK4" s="3" t="s">
         <v>112</v>
       </c>
-      <c r="AJ4" s="3" t="s">
+      <c r="AL4" s="3" t="s">
         <v>113</v>
       </c>
-      <c r="AK4" s="3" t="s">
+      <c r="AM4" s="3" t="s">
         <v>114</v>
       </c>
-      <c r="AL4" s="3" t="s">
+      <c r="AN4" s="3" t="s">
         <v>115</v>
       </c>
-      <c r="AM4" s="3" t="s">
+      <c r="AO4" s="3" t="s">
         <v>116</v>
       </c>
-      <c r="AN4" s="3" t="s">
+      <c r="AP4" s="3" t="s">
         <v>117</v>
       </c>
-      <c r="AO4" s="3" t="s">
+      <c r="AQ4" s="3" t="s">
         <v>118</v>
       </c>
-      <c r="AP4" s="3" t="s">
+      <c r="AR4" s="3" t="s">
         <v>119</v>
       </c>
-      <c r="AQ4" s="3" t="s">
+      <c r="AS4" s="3" t="s">
         <v>120</v>
       </c>
-      <c r="AR4" s="3" t="s">
+      <c r="AT4" s="3" t="s">
         <v>121</v>
       </c>
-      <c r="AS4" s="3" t="s">
+      <c r="AU4" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="AT4" s="3" t="s">
+      <c r="AV4" s="3" t="s">
         <v>123</v>
       </c>
-      <c r="AU4" s="3" t="s">
+      <c r="AW4" s="3" t="s">
         <v>124</v>
       </c>
-      <c r="AV4" s="3" t="s">
+      <c r="AX4" s="3" t="s">
         <v>125</v>
       </c>
-      <c r="AW4" s="3" t="s">
+      <c r="AY4" s="3" t="s">
         <v>126</v>
       </c>
-      <c r="AX4" s="3" t="s">
+      <c r="AZ4" s="3" t="s">
         <v>127</v>
       </c>
-      <c r="AY4" s="3" t="s">
+      <c r="BA4" s="3" t="s">
         <v>128</v>
       </c>
-      <c r="AZ4" s="3" t="s">
+      <c r="BB4" s="3" t="s">
         <v>129</v>
       </c>
-      <c r="BA4" s="3" t="s">
+      <c r="BC4" s="3" t="s">
         <v>130</v>
       </c>
-      <c r="BB4" s="3" t="s">
+      <c r="BD4" s="3" t="s">
         <v>131</v>
       </c>
-      <c r="BC4" s="3" t="s">
+      <c r="BE4" s="3" t="s">
         <v>132</v>
       </c>
-      <c r="BD4" s="3" t="s">
+      <c r="BF4" s="3" t="s">
         <v>133</v>
-      </c>
-      <c r="BE4" s="3" t="s">
-        <v>134</v>
-      </c>
-      <c r="BF4" s="3" t="s">
-        <v>135</v>
       </c>
       <c r="BG4" s="3"/>
       <c r="BH4" s="3"/>
@@ -1454,137 +1696,114 @@
       <c r="BJ4" s="3"/>
       <c r="BK4" s="3"/>
       <c r="BL4" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="BM4" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="BN4" s="3" t="s">
         <v>136</v>
       </c>
-      <c r="BM4" s="3" t="s">
+      <c r="BO4" s="3" t="s">
         <v>137</v>
       </c>
-      <c r="BN4" s="3" t="s">
+      <c r="BP4" s="3" t="s">
         <v>138</v>
       </c>
-      <c r="BO4" s="3" t="s">
+      <c r="BQ4" s="3" t="s">
         <v>139</v>
       </c>
-      <c r="BP4" s="3" t="s">
+      <c r="BR4" s="3" t="s">
         <v>140</v>
       </c>
-      <c r="BQ4" s="3" t="s">
+      <c r="BS4" s="3" t="s">
         <v>141</v>
       </c>
-      <c r="BR4" s="3" t="s">
+      <c r="BT4" s="3" t="s">
         <v>142</v>
-      </c>
-      <c r="BS4" s="3" t="s">
-        <v>143</v>
-      </c>
-      <c r="BT4" s="3" t="s">
-        <v>144</v>
       </c>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup blackAndWhite="false" cellComments="none" copies="1" draft="false" firstPageNumber="0" fitToHeight="1" fitToWidth="1" horizontalDpi="300" orientation="portrait" pageOrder="downThenOver" paperSize="9" scale="100" useFirstPageNumber="false" usePrinterDefaults="false" verticalDpi="300"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:AMK2"/>
   <sheetViews>
-    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="60">
-      <selection activeCell="A1" activeCellId="0" pane="topLeft" sqref="A1"/>
-    </sheetView>
+    <sheetView zoomScaleNormal="100" zoomScalePageLayoutView="60" workbookViewId="0"/>
   </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="8" width="41.0549019607843"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="9" width="41.0549019607843"/>
-    <col collapsed="false" hidden="false" max="4" min="3" style="10" width="41.0549019607843"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="11" width="41.0549019607843"/>
-    <col collapsed="false" hidden="false" max="7" min="6" style="12" width="41.0549019607843"/>
-    <col collapsed="false" hidden="false" max="1025" min="8" style="8" width="41.0549019607843"/>
+    <col min="1" max="1" width="41" style="8"/>
+    <col min="2" max="2" width="41" style="9"/>
+    <col min="3" max="4" width="41" style="10"/>
+    <col min="5" max="5" width="41" style="11"/>
+    <col min="6" max="7" width="41" style="12"/>
+    <col min="8" max="1025" width="41" style="8"/>
   </cols>
   <sheetData>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.9" outlineLevel="0" r="1">
+    <row r="1" spans="1:7">
       <c r="A1" s="13" t="s">
+        <v>143</v>
+      </c>
+      <c r="B1" s="14" t="s">
+        <v>144</v>
+      </c>
+      <c r="C1" s="15" t="s">
         <v>145</v>
-      </c>
-      <c r="B1" s="14" t="s">
-        <v>146</v>
-      </c>
-      <c r="C1" s="15" t="s">
-        <v>147</v>
       </c>
       <c r="D1" s="15" t="s">
         <v>10</v>
       </c>
       <c r="E1" s="16" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="F1" s="17" t="s">
         <v>12</v>
       </c>
       <c r="G1" s="17"/>
     </row>
-    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="82.05" outlineLevel="0" r="2" s="10">
+    <row r="2" spans="1:7" s="10" customFormat="1" ht="105">
       <c r="A2" s="10" t="s">
+        <v>147</v>
+      </c>
+      <c r="B2" s="18" t="s">
+        <v>148</v>
+      </c>
+      <c r="C2" s="10" t="s">
         <v>149</v>
       </c>
-      <c r="B2" s="18" t="s">
+      <c r="D2" s="10" t="s">
         <v>150</v>
       </c>
-      <c r="C2" s="10" t="s">
+      <c r="E2" s="10" t="s">
         <v>151</v>
       </c>
-      <c r="D2" s="10" t="s">
+      <c r="F2" s="10" t="s">
         <v>152</v>
-      </c>
-      <c r="E2" s="10" t="s">
-        <v>153</v>
-      </c>
-      <c r="F2" s="10" t="s">
-        <v>154</v>
       </c>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup blackAndWhite="false" cellComments="none" copies="1" draft="false" firstPageNumber="0" fitToHeight="1" fitToWidth="1" horizontalDpi="300" orientation="portrait" pageOrder="downThenOver" paperSize="9" scale="100" useFirstPageNumber="false" usePrinterDefaults="false" verticalDpi="300"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="60">
-      <selection activeCell="A1" activeCellId="0" pane="topLeft" sqref="A1"/>
-    </sheetView>
+    <sheetView zoomScaleNormal="100" zoomScalePageLayoutView="60" workbookViewId="0"/>
   </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.60392156862745"/>
+    <col min="1" max="1025" width="8.5703125"/>
   </cols>
   <sheetData/>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup blackAndWhite="false" cellComments="none" copies="1" draft="false" firstPageNumber="0" fitToHeight="1" fitToWidth="1" horizontalDpi="300" orientation="portrait" pageOrder="downThenOver" paperSize="9" scale="100" useFirstPageNumber="false" usePrinterDefaults="false" verticalDpi="300"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
 </worksheet>
 </file>
--- a/app-conf/data/datarep/species/templates/speciesTemplateSimple.xlsx
+++ b/app-conf/data/datarep/species/templates/speciesTemplateSimple.xlsx
@@ -4,19 +4,18 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="6600"/>
   </bookViews>
   <sheets>
     <sheet name="speciesTemplateSimple" sheetId="1" r:id="rId1"/>
     <sheet name="ImageMetadata" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="125725" iterateDelta="1E-4"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="155">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="250" uniqueCount="163">
   <si>
     <t>CONCEPT</t>
   </si>
@@ -213,15 +212,6 @@
     <t>Scientific Name</t>
   </si>
   <si>
-    <t>Generic Specific Name</t>
-  </si>
-  <si>
-    <t>Author</t>
-  </si>
-  <si>
-    <t>Year</t>
-  </si>
-  <si>
     <t>Name(s)</t>
   </si>
   <si>
@@ -288,12 +278,6 @@
     <t>The full name of the lowest level taxon to which the organism has been identified in the most recent accepted determination, specified as precisely as possible, including name of author, year of authorship, sensu or sec. (according to or following) author, and indication of uncertainty. Conceptually equivalent to a full taxonomic identification as given by the identifier (verbatim). Does not include the identifier name or date of identification</t>
   </si>
   <si>
-    <t>Generic name followed by specific name.</t>
-  </si>
-  <si>
-    <t>Name of author, year of authorship, sensu or sec. (according to or following) author, and indication of uncertainty.</t>
-  </si>
-  <si>
     <t>A related resource that references, cites, or otherwise points to the taxon. Recommended to use well-formed bibliographic citations. Strongly recommended to include identifiers that unambiguously refer to the specified resource when available.</t>
   </si>
   <si>
@@ -430,9 +414,6 @@
   </si>
   <si>
     <t>Any notes or comments</t>
-  </si>
-  <si>
-    <t>Name of contributor</t>
   </si>
   <si>
     <t>Attribution for the species page</t>
@@ -485,13 +466,55 @@
   </si>
   <si>
     <t>Local Endemicity Geographic Entity</t>
+  </si>
+  <si>
+    <t>ATTRIBUTION</t>
+  </si>
+  <si>
+    <t>Additional taxonomic heirarchies, including contributor provided heirarchies. To be filled in only if the name has a rank of Infraspecies</t>
+  </si>
+  <si>
+    <t>Rank</t>
+  </si>
+  <si>
+    <t>Name Source</t>
+  </si>
+  <si>
+    <t>Via Source</t>
+  </si>
+  <si>
+    <t>Name Source Id</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Id number on the name source database. Eg: urn:lsid:nmbe.ch:spidersp:023071 </t>
+  </si>
+  <si>
+    <t>The original source from which the name source obtained the name (this is for populating the "via" filed in the taxon name curation interface) eg: World Spider Catalogue</t>
+  </si>
+  <si>
+    <t>The source from which the name was obtained (this is for populating the "Source" in the taxon name curation interface) eg: Catalogue of Life</t>
+  </si>
+  <si>
+    <t>Name Source Information</t>
+  </si>
+  <si>
+    <t>email of contributor with which account is created on IBP</t>
+  </si>
+  <si>
+    <t>The taxonomic rank of the Scientific Name. eg: Species, Infraspecies</t>
+  </si>
+  <si>
+    <t>Type information</t>
+  </si>
+  <si>
+    <t>Information about type specimens associated with a given taxon; e.g., label data, the type- ie. holotype or other, the collection where they are stored, type locality, type host, information about the specimens' history, etc.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="4">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -517,8 +540,21 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFC00000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFC00000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -527,12 +563,24 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFDEADA"/>
+        <fgColor theme="6" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
         <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -540,33 +588,40 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
@@ -608,6 +663,35 @@
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="top" wrapText="1"/>
       <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -971,839 +1055,876 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AMK4"/>
+  <dimension ref="A1:BV4"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScalePageLayoutView="60" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScalePageLayoutView="60" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="25.85546875" style="1"/>
-    <col min="2" max="1025" width="25.85546875" style="2"/>
+    <col min="1" max="1" width="25.81640625" style="12"/>
+    <col min="2" max="5" width="25.81640625" style="13"/>
+    <col min="6" max="6" width="45" style="13" customWidth="1"/>
+    <col min="7" max="7" width="22.26953125" style="13" customWidth="1"/>
+    <col min="8" max="9" width="25.81640625" style="13"/>
+    <col min="10" max="10" width="32.81640625" style="13" customWidth="1"/>
+    <col min="11" max="19" width="25.81640625" style="13"/>
+    <col min="20" max="22" width="9.1796875" style="13"/>
+    <col min="23" max="74" width="25.81640625" style="13"/>
+    <col min="75" max="16384" width="9.1796875" style="14"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:72" s="3" customFormat="1" ht="30">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:74" s="15" customFormat="1">
+      <c r="A1" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="G1" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="H1" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="I1" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="J1" s="4" t="s">
+      <c r="J1" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="K1" s="4" t="s">
+      <c r="K1" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="L1" s="4" t="s">
+      <c r="L1" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="M1" s="4" t="s">
+      <c r="M1" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="N1" s="4" t="s">
+      <c r="N1" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="O1" s="4" t="s">
+      <c r="O1" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="P1" s="4" t="s">
+      <c r="P1" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="Q1" s="4" t="s">
+      <c r="Q1" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="R1" s="4" t="s">
+      <c r="R1" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="S1" s="4" t="s">
+      <c r="S1" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="T1" s="4" t="s">
+      <c r="T1" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="U1" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="V1" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="W1" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="X1" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="Y1" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="Z1" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="AA1" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="AB1" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="AC1" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="AD1" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="AE1" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="AF1" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="AG1" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="AH1" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="AI1" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="AJ1" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="AK1" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="AL1" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="AM1" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="AN1" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="AO1" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="AP1" s="4" t="s">
+      <c r="U1" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="V1" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="W1" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="X1" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="Y1" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="Z1" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="AA1" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="AB1" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="AC1" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="AD1" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="AE1" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="AF1" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="AG1" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="AH1" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="AI1" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="AJ1" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="AK1" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="AL1" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="AM1" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="AN1" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="AO1" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="AP1" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="AQ1" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="AR1" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="AQ1" s="4" t="s">
+      <c r="AS1" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="AR1" s="4" t="s">
+      <c r="AT1" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="AS1" s="4" t="s">
+      <c r="AU1" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="AT1" s="4" t="s">
+      <c r="AV1" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="AU1" s="4" t="s">
+      <c r="AW1" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="AV1" s="4" t="s">
+      <c r="AX1" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="AW1" s="4" t="s">
+      <c r="AY1" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="AX1" s="4" t="s">
+      <c r="AZ1" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="AY1" s="4" t="s">
+      <c r="BA1" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="AZ1" s="4" t="s">
+      <c r="BB1" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="BA1" s="4" t="s">
+      <c r="BC1" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="BB1" s="4" t="s">
+      <c r="BD1" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="BC1" s="4" t="s">
+      <c r="BE1" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="BD1" s="4" t="s">
+      <c r="BF1" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="BE1" s="4" t="s">
+      <c r="BG1" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="BF1" s="4" t="s">
+      <c r="BH1" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="BG1" s="4" t="s">
+      <c r="BI1" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="BH1" s="4" t="s">
+      <c r="BJ1" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="BI1" s="4" t="s">
+      <c r="BK1" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="BJ1" s="4" t="s">
+      <c r="BL1" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="BK1" s="4" t="s">
+      <c r="BM1" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="BL1" s="4" t="s">
+      <c r="BN1" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="BM1" s="4" t="s">
+      <c r="BO1" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="BN1" s="5" t="s">
+      <c r="BP1" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="BO1" s="1" t="s">
+      <c r="BQ1" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="BP1" s="5" t="s">
+      <c r="BR1" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="BQ1" s="5" t="s">
+      <c r="BS1" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="BR1" s="5" t="s">
+      <c r="BT1" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="BS1" s="1" t="s">
+      <c r="BU1" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="BT1" s="1" t="s">
+      <c r="BV1" s="20" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:72" ht="30">
-      <c r="A2" s="1" t="s">
+    <row r="2" spans="1:74" s="16" customFormat="1">
+      <c r="A2" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="21" t="s">
         <v>16</v>
       </c>
+      <c r="C2" s="18" t="s">
+        <v>17</v>
+      </c>
+      <c r="D2" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="E2" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="F2" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="G2" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="H2" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="I2" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="J2" s="18" t="s">
+        <v>161</v>
+      </c>
+      <c r="K2" s="18" t="s">
+        <v>21</v>
+      </c>
+      <c r="L2" s="18" t="s">
+        <v>22</v>
+      </c>
+      <c r="M2" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="N2" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="O2" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="P2" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q2" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="R2" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="S2" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="T2" s="18" t="s">
+        <v>158</v>
+      </c>
+      <c r="U2" s="18" t="s">
+        <v>158</v>
+      </c>
+      <c r="V2" s="18" t="s">
+        <v>158</v>
+      </c>
+      <c r="W2" s="18" t="s">
+        <v>24</v>
+      </c>
+      <c r="X2" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="Y2" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="Z2" s="18" t="s">
+        <v>27</v>
+      </c>
+      <c r="AA2" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="AB2" s="18" t="s">
+        <v>29</v>
+      </c>
+      <c r="AC2" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="AD2" s="18" t="s">
+        <v>31</v>
+      </c>
+      <c r="AE2" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="AF2" s="18" t="s">
+        <v>33</v>
+      </c>
+      <c r="AG2" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="AH2" s="18" t="s">
+        <v>35</v>
+      </c>
+      <c r="AI2" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="AJ2" s="18" t="s">
+        <v>37</v>
+      </c>
+      <c r="AK2" s="18" t="s">
+        <v>38</v>
+      </c>
+      <c r="AL2" s="18" t="s">
+        <v>39</v>
+      </c>
+      <c r="AM2" s="18" t="s">
+        <v>40</v>
+      </c>
+      <c r="AN2" s="18" t="s">
+        <v>41</v>
+      </c>
+      <c r="AO2" s="18" t="s">
+        <v>42</v>
+      </c>
+      <c r="AP2" s="18" t="s">
+        <v>43</v>
+      </c>
+      <c r="AQ2" s="18" t="s">
+        <v>44</v>
+      </c>
+      <c r="AR2" s="18" t="s">
+        <v>45</v>
+      </c>
+      <c r="AS2" s="18" t="s">
+        <v>46</v>
+      </c>
+      <c r="AT2" s="18" t="s">
+        <v>46</v>
+      </c>
+      <c r="AU2" s="18" t="s">
+        <v>46</v>
+      </c>
+      <c r="AV2" s="18" t="s">
+        <v>47</v>
+      </c>
+      <c r="AW2" s="18" t="s">
+        <v>47</v>
+      </c>
+      <c r="AX2" s="18" t="s">
+        <v>47</v>
+      </c>
+      <c r="AY2" s="18" t="s">
+        <v>48</v>
+      </c>
+      <c r="AZ2" s="18" t="s">
+        <v>49</v>
+      </c>
+      <c r="BA2" s="18" t="s">
+        <v>50</v>
+      </c>
+      <c r="BB2" s="18" t="s">
+        <v>51</v>
+      </c>
+      <c r="BC2" s="18" t="s">
+        <v>52</v>
+      </c>
+      <c r="BD2" s="18" t="s">
+        <v>53</v>
+      </c>
+      <c r="BE2" s="18" t="s">
+        <v>54</v>
+      </c>
+      <c r="BF2" s="18" t="s">
+        <v>55</v>
+      </c>
+      <c r="BG2" s="18" t="s">
+        <v>56</v>
+      </c>
+      <c r="BH2" s="18" t="s">
+        <v>57</v>
+      </c>
+      <c r="BI2" s="18" t="s">
+        <v>58</v>
+      </c>
+      <c r="BJ2" s="18" t="s">
+        <v>58</v>
+      </c>
+      <c r="BK2" s="18" t="s">
+        <v>58</v>
+      </c>
+      <c r="BL2" s="18" t="s">
+        <v>58</v>
+      </c>
+      <c r="BM2" s="18" t="s">
+        <v>58</v>
+      </c>
+      <c r="BN2" s="18" t="s">
+        <v>59</v>
+      </c>
+      <c r="BO2" s="18" t="s">
+        <v>60</v>
+      </c>
+      <c r="BP2" s="18"/>
+      <c r="BQ2" s="18"/>
+      <c r="BR2" s="18"/>
+      <c r="BS2" s="18"/>
+      <c r="BT2" s="18"/>
+      <c r="BU2" s="18"/>
+      <c r="BV2" s="22"/>
+    </row>
+    <row r="3" spans="1:74" s="16" customFormat="1">
+      <c r="A3" s="17" t="s">
+        <v>61</v>
+      </c>
+      <c r="B3" s="18"/>
+      <c r="C3" s="18"/>
+      <c r="D3" s="18" t="s">
+        <v>62</v>
+      </c>
+      <c r="E3" s="18" t="s">
+        <v>63</v>
+      </c>
+      <c r="F3" s="18"/>
+      <c r="G3" s="18" t="s">
+        <v>151</v>
+      </c>
+      <c r="H3" s="21" t="s">
+        <v>64</v>
+      </c>
+      <c r="I3" s="18" t="s">
+        <v>59</v>
+      </c>
+      <c r="J3" s="18"/>
+      <c r="K3" s="18"/>
+      <c r="L3" s="18" t="s">
+        <v>65</v>
+      </c>
+      <c r="M3" s="18" t="s">
+        <v>66</v>
+      </c>
+      <c r="N3" s="18" t="s">
+        <v>67</v>
+      </c>
+      <c r="O3" s="18" t="s">
+        <v>68</v>
+      </c>
+      <c r="P3" s="18" t="s">
+        <v>69</v>
+      </c>
+      <c r="Q3" s="18" t="s">
+        <v>70</v>
+      </c>
+      <c r="R3" s="18" t="s">
+        <v>71</v>
+      </c>
+      <c r="S3" s="18" t="s">
+        <v>72</v>
+      </c>
+      <c r="T3" s="18" t="s">
+        <v>152</v>
+      </c>
+      <c r="U3" s="18" t="s">
+        <v>153</v>
+      </c>
+      <c r="V3" s="18" t="s">
+        <v>154</v>
+      </c>
+      <c r="W3" s="18"/>
+      <c r="X3" s="18"/>
+      <c r="Y3" s="18"/>
+      <c r="Z3" s="18"/>
+      <c r="AA3" s="18"/>
+      <c r="AB3" s="18"/>
+      <c r="AC3" s="18"/>
+      <c r="AD3" s="18"/>
+      <c r="AE3" s="18"/>
+      <c r="AF3" s="18"/>
+      <c r="AG3" s="18"/>
+      <c r="AH3" s="18"/>
+      <c r="AI3" s="18"/>
+      <c r="AJ3" s="18"/>
+      <c r="AK3" s="18"/>
+      <c r="AL3" s="18"/>
+      <c r="AM3" s="18"/>
+      <c r="AN3" s="18"/>
+      <c r="AO3" s="18"/>
+      <c r="AP3" s="18"/>
+      <c r="AQ3" s="18"/>
+      <c r="AR3" s="18"/>
+      <c r="AS3" s="18" t="s">
+        <v>63</v>
+      </c>
+      <c r="AT3" s="18" t="s">
+        <v>73</v>
+      </c>
+      <c r="AU3" s="18" t="s">
+        <v>147</v>
+      </c>
+      <c r="AV3" s="18"/>
+      <c r="AW3" s="18" t="s">
+        <v>74</v>
+      </c>
+      <c r="AX3" s="18" t="s">
+        <v>148</v>
+      </c>
+      <c r="AY3" s="18"/>
+      <c r="AZ3" s="18"/>
+      <c r="BA3" s="18"/>
+      <c r="BB3" s="18"/>
+      <c r="BC3" s="18"/>
+      <c r="BD3" s="18"/>
+      <c r="BE3" s="18"/>
+      <c r="BF3" s="18"/>
+      <c r="BG3" s="18"/>
+      <c r="BH3" s="18"/>
+      <c r="BI3" s="18" t="s">
+        <v>75</v>
+      </c>
+      <c r="BJ3" s="18" t="s">
+        <v>76</v>
+      </c>
+      <c r="BK3" s="18" t="s">
+        <v>77</v>
+      </c>
+      <c r="BL3" s="18" t="s">
+        <v>78</v>
+      </c>
+      <c r="BM3" s="18" t="s">
+        <v>79</v>
+      </c>
+      <c r="BN3" s="18"/>
+      <c r="BO3" s="18"/>
+      <c r="BP3" s="18"/>
+      <c r="BQ3" s="18"/>
+      <c r="BR3" s="18"/>
+      <c r="BS3" s="18"/>
+      <c r="BT3" s="18"/>
+      <c r="BU3" s="18"/>
+      <c r="BV3" s="22"/>
+    </row>
+    <row r="4" spans="1:74" s="16" customFormat="1">
+      <c r="A4" s="17" t="s">
+        <v>80</v>
+      </c>
+      <c r="B4" s="18" t="s">
+        <v>81</v>
+      </c>
+      <c r="C4" s="18" t="s">
+        <v>82</v>
+      </c>
+      <c r="D4" s="18" t="s">
+        <v>83</v>
+      </c>
+      <c r="E4" s="18" t="s">
+        <v>84</v>
+      </c>
+      <c r="F4" s="18" t="s">
+        <v>85</v>
+      </c>
+      <c r="G4" s="18" t="s">
+        <v>160</v>
+      </c>
+      <c r="H4" s="18" t="s">
+        <v>86</v>
+      </c>
+      <c r="I4" s="18" t="s">
+        <v>87</v>
+      </c>
+      <c r="J4" s="18" t="s">
+        <v>162</v>
+      </c>
+      <c r="K4" s="18" t="s">
+        <v>88</v>
+      </c>
+      <c r="L4" s="18" t="s">
+        <v>89</v>
+      </c>
+      <c r="M4" s="18" t="s">
+        <v>90</v>
+      </c>
+      <c r="N4" s="18" t="s">
+        <v>90</v>
+      </c>
+      <c r="O4" s="18" t="s">
+        <v>90</v>
+      </c>
+      <c r="P4" s="18" t="s">
+        <v>90</v>
+      </c>
+      <c r="Q4" s="18" t="s">
+        <v>90</v>
+      </c>
+      <c r="R4" s="18" t="s">
+        <v>90</v>
+      </c>
+      <c r="S4" s="18" t="s">
+        <v>150</v>
+      </c>
+      <c r="T4" s="18" t="s">
+        <v>157</v>
+      </c>
+      <c r="U4" s="18" t="s">
+        <v>156</v>
+      </c>
+      <c r="V4" s="18" t="s">
+        <v>155</v>
+      </c>
+      <c r="W4" s="18" t="s">
+        <v>91</v>
+      </c>
+      <c r="X4" s="18" t="s">
+        <v>92</v>
+      </c>
+      <c r="Y4" s="18" t="s">
+        <v>93</v>
+      </c>
+      <c r="Z4" s="18" t="s">
+        <v>94</v>
+      </c>
+      <c r="AA4" s="18" t="s">
+        <v>95</v>
+      </c>
+      <c r="AB4" s="18" t="s">
+        <v>96</v>
+      </c>
+      <c r="AC4" s="18" t="s">
+        <v>97</v>
+      </c>
+      <c r="AD4" s="18" t="s">
+        <v>98</v>
+      </c>
+      <c r="AE4" s="18" t="s">
+        <v>99</v>
+      </c>
+      <c r="AF4" s="18" t="s">
+        <v>100</v>
+      </c>
+      <c r="AG4" s="18" t="s">
+        <v>101</v>
+      </c>
+      <c r="AH4" s="18" t="s">
+        <v>102</v>
+      </c>
+      <c r="AI4" s="18" t="s">
+        <v>103</v>
+      </c>
+      <c r="AJ4" s="18" t="s">
+        <v>104</v>
+      </c>
+      <c r="AK4" s="18" t="s">
+        <v>105</v>
+      </c>
+      <c r="AL4" s="18" t="s">
+        <v>106</v>
+      </c>
+      <c r="AM4" s="18" t="s">
+        <v>107</v>
+      </c>
+      <c r="AN4" s="18" t="s">
+        <v>108</v>
+      </c>
+      <c r="AO4" s="18" t="s">
+        <v>109</v>
+      </c>
+      <c r="AP4" s="18" t="s">
+        <v>110</v>
+      </c>
+      <c r="AQ4" s="18" t="s">
+        <v>111</v>
+      </c>
+      <c r="AR4" s="18" t="s">
+        <v>112</v>
+      </c>
+      <c r="AS4" s="18" t="s">
+        <v>113</v>
+      </c>
+      <c r="AT4" s="18" t="s">
+        <v>114</v>
+      </c>
+      <c r="AU4" s="18" t="s">
+        <v>115</v>
+      </c>
+      <c r="AV4" s="18" t="s">
+        <v>116</v>
+      </c>
+      <c r="AW4" s="18" t="s">
+        <v>117</v>
+      </c>
+      <c r="AX4" s="18" t="s">
+        <v>118</v>
+      </c>
+      <c r="AY4" s="18" t="s">
+        <v>119</v>
+      </c>
+      <c r="AZ4" s="18" t="s">
+        <v>120</v>
+      </c>
+      <c r="BA4" s="18" t="s">
+        <v>121</v>
+      </c>
+      <c r="BB4" s="18" t="s">
+        <v>122</v>
+      </c>
+      <c r="BC4" s="18" t="s">
+        <v>123</v>
+      </c>
+      <c r="BD4" s="18" t="s">
+        <v>124</v>
+      </c>
+      <c r="BE4" s="18" t="s">
+        <v>125</v>
+      </c>
+      <c r="BF4" s="18" t="s">
+        <v>126</v>
+      </c>
+      <c r="BG4" s="18" t="s">
+        <v>127</v>
+      </c>
+      <c r="BH4" s="18" t="s">
+        <v>128</v>
+      </c>
+      <c r="BI4" s="18"/>
+      <c r="BJ4" s="18"/>
+      <c r="BK4" s="18"/>
+      <c r="BL4" s="18"/>
+      <c r="BM4" s="18"/>
+      <c r="BN4" s="18" t="s">
+        <v>129</v>
+      </c>
+      <c r="BO4" s="18" t="s">
+        <v>130</v>
+      </c>
+      <c r="BP4" s="18" t="s">
+        <v>131</v>
+      </c>
+      <c r="BQ4" s="18" t="s">
+        <v>132</v>
+      </c>
+      <c r="BR4" s="18" t="s">
+        <v>159</v>
+      </c>
+      <c r="BS4" s="18" t="s">
+        <v>133</v>
+      </c>
+      <c r="BT4" s="18" t="s">
+        <v>134</v>
+      </c>
+      <c r="BU4" s="18" t="s">
+        <v>135</v>
+      </c>
+      <c r="BV4" s="22" t="s">
+        <v>136</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:AML2"/>
+  <sheetViews>
+    <sheetView topLeftCell="B1" zoomScaleNormal="100" zoomScalePageLayoutView="60" workbookViewId="0">
+      <selection activeCell="E1" sqref="E1:E1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5"/>
+  <cols>
+    <col min="1" max="1" width="41" style="1"/>
+    <col min="2" max="2" width="41" style="2"/>
+    <col min="3" max="4" width="41" style="3"/>
+    <col min="5" max="5" width="9.1796875" style="3"/>
+    <col min="6" max="6" width="41" style="4"/>
+    <col min="7" max="8" width="41" style="5"/>
+    <col min="9" max="1026" width="41" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" ht="29">
+      <c r="A1" s="6" t="s">
+        <v>137</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>139</v>
+      </c>
+      <c r="D1" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1" s="8" t="s">
+        <v>149</v>
+      </c>
+      <c r="F1" s="9" t="s">
+        <v>140</v>
+      </c>
+      <c r="G1" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="H1" s="10"/>
+    </row>
+    <row r="2" spans="1:8" s="3" customFormat="1" ht="87">
+      <c r="A2" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="B2" s="11" t="s">
+        <v>142</v>
+      </c>
       <c r="C2" s="3" t="s">
-        <v>17</v>
+        <v>143</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>18</v>
+        <v>144</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="G2" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="H2" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="I2" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="J2" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="K2" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="L2" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="M2" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="N2" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="O2" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="P2" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="Q2" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="R2" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="S2" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="T2" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="U2" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="V2" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="W2" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="X2" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="Y2" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="Z2" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="AA2" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="AB2" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="AC2" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="AD2" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="AE2" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="AF2" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="AG2" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="AH2" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="AI2" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="AJ2" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="AK2" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="AL2" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="AM2" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="AN2" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="AO2" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="AP2" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="AQ2" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="AR2" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="AS2" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="AT2" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="AU2" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="AV2" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="AW2" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="AX2" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="AY2" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="AZ2" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="BA2" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="BB2" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="BC2" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="BD2" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="BE2" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="BF2" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="BG2" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="BH2" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="BI2" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="BJ2" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="BK2" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="BL2" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="BM2" s="4" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="3" spans="1:72" ht="45">
-      <c r="A3" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="B3" s="3"/>
-      <c r="C3" s="4"/>
-      <c r="D3" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="F3" s="4"/>
-      <c r="G3" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="H3" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="I3" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="J3" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="K3" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="L3" s="4"/>
-      <c r="M3" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="N3" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="O3" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="P3" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="Q3" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="R3" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="S3" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="T3" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="U3" s="4"/>
-      <c r="V3" s="4"/>
-      <c r="W3" s="4"/>
-      <c r="X3" s="4"/>
-      <c r="Y3" s="4"/>
-      <c r="Z3" s="4"/>
-      <c r="AA3" s="4"/>
-      <c r="AB3" s="4"/>
-      <c r="AC3" s="4"/>
-      <c r="AD3" s="4"/>
-      <c r="AE3" s="4"/>
-      <c r="AF3" s="4"/>
-      <c r="AG3" s="4"/>
-      <c r="AH3" s="4"/>
-      <c r="AI3" s="4"/>
-      <c r="AJ3" s="4"/>
-      <c r="AK3" s="4"/>
-      <c r="AL3" s="4"/>
-      <c r="AM3" s="4"/>
-      <c r="AN3" s="4"/>
-      <c r="AO3" s="4"/>
-      <c r="AP3" s="4"/>
-      <c r="AQ3" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="AR3" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="AS3" s="4" t="s">
-        <v>153</v>
-      </c>
-      <c r="AT3" s="4"/>
-      <c r="AU3" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="AV3" s="4" t="s">
-        <v>154</v>
-      </c>
-      <c r="AW3" s="4"/>
-      <c r="AX3" s="4"/>
-      <c r="AY3" s="4"/>
-      <c r="AZ3" s="4"/>
-      <c r="BA3" s="4"/>
-      <c r="BB3" s="4"/>
-      <c r="BC3" s="4"/>
-      <c r="BD3" s="4"/>
-      <c r="BE3" s="4"/>
-      <c r="BF3" s="4"/>
-      <c r="BG3" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="BH3" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="BI3" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="BJ3" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="BK3" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="BL3" s="4"/>
-      <c r="BM3" s="3"/>
-    </row>
-    <row r="4" spans="1:72" ht="285">
-      <c r="A4" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="G4" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="H4" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="I4" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="J4" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="K4" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="L4" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="M4" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="N4" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="O4" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="P4" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="Q4" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="R4" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="S4" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="T4" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="U4" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="V4" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="W4" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="X4" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="Y4" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="Z4" s="3" t="s">
-        <v>101</v>
-      </c>
-      <c r="AA4" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="AB4" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="AC4" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="AD4" s="3" t="s">
-        <v>105</v>
-      </c>
-      <c r="AE4" s="3" t="s">
-        <v>106</v>
-      </c>
-      <c r="AF4" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="AG4" s="3" t="s">
-        <v>108</v>
-      </c>
-      <c r="AH4" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="AI4" s="3" t="s">
-        <v>110</v>
-      </c>
-      <c r="AJ4" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="AK4" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="AL4" s="3" t="s">
-        <v>113</v>
-      </c>
-      <c r="AM4" s="3" t="s">
-        <v>114</v>
-      </c>
-      <c r="AN4" s="3" t="s">
-        <v>115</v>
-      </c>
-      <c r="AO4" s="3" t="s">
-        <v>116</v>
-      </c>
-      <c r="AP4" s="3" t="s">
-        <v>117</v>
-      </c>
-      <c r="AQ4" s="3" t="s">
-        <v>118</v>
-      </c>
-      <c r="AR4" s="3" t="s">
-        <v>119</v>
-      </c>
-      <c r="AS4" s="3" t="s">
-        <v>120</v>
-      </c>
-      <c r="AT4" s="3" t="s">
-        <v>121</v>
-      </c>
-      <c r="AU4" s="3" t="s">
-        <v>122</v>
-      </c>
-      <c r="AV4" s="3" t="s">
-        <v>123</v>
-      </c>
-      <c r="AW4" s="3" t="s">
-        <v>124</v>
-      </c>
-      <c r="AX4" s="3" t="s">
-        <v>125</v>
-      </c>
-      <c r="AY4" s="3" t="s">
-        <v>126</v>
-      </c>
-      <c r="AZ4" s="3" t="s">
-        <v>127</v>
-      </c>
-      <c r="BA4" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="BB4" s="3" t="s">
-        <v>129</v>
-      </c>
-      <c r="BC4" s="3" t="s">
-        <v>130</v>
-      </c>
-      <c r="BD4" s="3" t="s">
-        <v>131</v>
-      </c>
-      <c r="BE4" s="3" t="s">
-        <v>132</v>
-      </c>
-      <c r="BF4" s="3" t="s">
-        <v>133</v>
-      </c>
-      <c r="BG4" s="3"/>
-      <c r="BH4" s="3"/>
-      <c r="BI4" s="3"/>
-      <c r="BJ4" s="3"/>
-      <c r="BK4" s="3"/>
-      <c r="BL4" s="3" t="s">
-        <v>134</v>
-      </c>
-      <c r="BM4" s="3" t="s">
-        <v>135</v>
-      </c>
-      <c r="BN4" s="3" t="s">
-        <v>136</v>
-      </c>
-      <c r="BO4" s="3" t="s">
-        <v>137</v>
-      </c>
-      <c r="BP4" s="3" t="s">
-        <v>138</v>
-      </c>
-      <c r="BQ4" s="3" t="s">
-        <v>139</v>
-      </c>
-      <c r="BR4" s="3" t="s">
-        <v>140</v>
-      </c>
-      <c r="BS4" s="3" t="s">
-        <v>141</v>
-      </c>
-      <c r="BT4" s="3" t="s">
-        <v>142</v>
+        <v>145</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>146</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AMK2"/>
-  <sheetViews>
-    <sheetView zoomScaleNormal="100" zoomScalePageLayoutView="60" workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="41" style="8"/>
-    <col min="2" max="2" width="41" style="9"/>
-    <col min="3" max="4" width="41" style="10"/>
-    <col min="5" max="5" width="41" style="11"/>
-    <col min="6" max="7" width="41" style="12"/>
-    <col min="8" max="1025" width="41" style="8"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:7">
-      <c r="A1" s="13" t="s">
-        <v>143</v>
-      </c>
-      <c r="B1" s="14" t="s">
-        <v>144</v>
-      </c>
-      <c r="C1" s="15" t="s">
-        <v>145</v>
-      </c>
-      <c r="D1" s="15" t="s">
-        <v>10</v>
-      </c>
-      <c r="E1" s="16" t="s">
-        <v>146</v>
-      </c>
-      <c r="F1" s="17" t="s">
-        <v>12</v>
-      </c>
-      <c r="G1" s="17"/>
-    </row>
-    <row r="2" spans="1:7" s="10" customFormat="1" ht="105">
-      <c r="A2" s="10" t="s">
-        <v>147</v>
-      </c>
-      <c r="B2" s="18" t="s">
-        <v>148</v>
-      </c>
-      <c r="C2" s="10" t="s">
-        <v>149</v>
-      </c>
-      <c r="D2" s="10" t="s">
-        <v>150</v>
-      </c>
-      <c r="E2" s="10" t="s">
-        <v>151</v>
-      </c>
-      <c r="F2" s="10" t="s">
-        <v>152</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView zoomScaleNormal="100" zoomScalePageLayoutView="60" workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1025" width="8.5703125"/>
-  </cols>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
-</worksheet>
 </file>